--- a/Code/Results/Cases/Case_0_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9344131241618606</v>
+        <v>1.03215926294198</v>
       </c>
       <c r="D2">
-        <v>0.9465118181335863</v>
+        <v>1.038960079507079</v>
       </c>
       <c r="E2">
-        <v>0.9498670239480215</v>
+        <v>1.031625385671663</v>
       </c>
       <c r="F2">
-        <v>0.9333102117004778</v>
+        <v>1.044770361999965</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029462178644178</v>
+        <v>1.02558616476744</v>
       </c>
       <c r="J2">
-        <v>0.95874959829119</v>
+        <v>1.037291017445208</v>
       </c>
       <c r="K2">
-        <v>0.958770292902497</v>
+        <v>1.041746626773963</v>
       </c>
       <c r="L2">
-        <v>0.9620719819414123</v>
+        <v>1.034432962556984</v>
       </c>
       <c r="M2">
-        <v>0.9457840666534933</v>
+        <v>1.047540477808525</v>
       </c>
       <c r="N2">
-        <v>0.9902804202692683</v>
+        <v>1.016353115855461</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9491238385981602</v>
+        <v>1.034186319873802</v>
       </c>
       <c r="D3">
-        <v>0.96087713611105</v>
+        <v>1.040886284846098</v>
       </c>
       <c r="E3">
-        <v>0.9621846155344108</v>
+        <v>1.033370803401584</v>
       </c>
       <c r="F3">
-        <v>0.951619534544077</v>
+        <v>1.046987738301942</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034013863203381</v>
+        <v>1.025828105562731</v>
       </c>
       <c r="J3">
-        <v>0.9711045398335321</v>
+        <v>1.038954780536555</v>
       </c>
       <c r="K3">
-        <v>0.972036346719603</v>
+        <v>1.043480010256753</v>
       </c>
       <c r="L3">
-        <v>0.9733253630195513</v>
+        <v>1.035984474811181</v>
       </c>
       <c r="M3">
-        <v>0.9629113128116928</v>
+        <v>1.049565497943743</v>
       </c>
       <c r="N3">
-        <v>0.9943780042772847</v>
+        <v>1.016903889678523</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9578404136383389</v>
+        <v>1.035484549232085</v>
       </c>
       <c r="D4">
-        <v>0.969353401847039</v>
+        <v>1.042117532369615</v>
       </c>
       <c r="E4">
-        <v>0.9694911791890292</v>
+        <v>1.034488971503151</v>
       </c>
       <c r="F4">
-        <v>0.9623253467943766</v>
+        <v>1.048398825102347</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036613150703537</v>
+        <v>1.025973924201731</v>
       </c>
       <c r="J4">
-        <v>0.9783877073208808</v>
+        <v>1.040017877053239</v>
       </c>
       <c r="K4">
-        <v>0.9798363399117179</v>
+        <v>1.044586124264488</v>
       </c>
       <c r="L4">
-        <v>0.9799723204987421</v>
+        <v>1.036976763452705</v>
       </c>
       <c r="M4">
-        <v>0.9729007942048097</v>
+        <v>1.050851833588921</v>
       </c>
       <c r="N4">
-        <v>0.996794008131036</v>
+        <v>1.017255752221955</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9613438844558475</v>
+        <v>1.036027170756988</v>
       </c>
       <c r="D5">
-        <v>0.9727527145395679</v>
+        <v>1.042631582726102</v>
       </c>
       <c r="E5">
-        <v>0.9724296885200161</v>
+        <v>1.034956407287077</v>
       </c>
       <c r="F5">
-        <v>0.9665979143655878</v>
+        <v>1.048986449222006</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037635499746738</v>
+        <v>1.026032670262067</v>
       </c>
       <c r="J5">
-        <v>0.9813069096695922</v>
+        <v>1.040461628462656</v>
       </c>
       <c r="K5">
-        <v>0.9829583299167506</v>
+        <v>1.045047478366854</v>
       </c>
       <c r="L5">
-        <v>0.9826393764889877</v>
+        <v>1.037391179267411</v>
       </c>
       <c r="M5">
-        <v>0.976881712227476</v>
+        <v>1.051386940368189</v>
       </c>
       <c r="N5">
-        <v>0.9977624530646227</v>
+        <v>1.017402608661475</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9619234269759712</v>
+        <v>1.036118095947067</v>
       </c>
       <c r="D6">
-        <v>0.973314604135286</v>
+        <v>1.042717686548636</v>
       </c>
       <c r="E6">
-        <v>0.9729158754230918</v>
+        <v>1.035034738217075</v>
       </c>
       <c r="F6">
-        <v>0.9673029783834697</v>
+        <v>1.049084787895521</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037803320603346</v>
+        <v>1.026042384461634</v>
       </c>
       <c r="J6">
-        <v>0.9817893437022832</v>
+        <v>1.040535951549264</v>
       </c>
       <c r="K6">
-        <v>0.9834740316693193</v>
+        <v>1.045124728891773</v>
       </c>
       <c r="L6">
-        <v>0.9830803014123615</v>
+        <v>1.037460601970349</v>
       </c>
       <c r="M6">
-        <v>0.9775383136294999</v>
+        <v>1.051476456814669</v>
       </c>
       <c r="N6">
-        <v>0.9979225037385706</v>
+        <v>1.01742720443144</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9578878254848912</v>
+        <v>1.035491812086495</v>
       </c>
       <c r="D7">
-        <v>0.9693994333213857</v>
+        <v>1.042124415072708</v>
       </c>
       <c r="E7">
-        <v>0.9695309386359158</v>
+        <v>1.034495227722536</v>
       </c>
       <c r="F7">
-        <v>0.9623832840713181</v>
+        <v>1.048406698854255</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036627074354338</v>
+        <v>1.025974719195748</v>
       </c>
       <c r="J7">
-        <v>0.9784272439326088</v>
+        <v>1.040023818888607</v>
       </c>
       <c r="K7">
-        <v>0.9798786399144109</v>
+        <v>1.044592303195455</v>
       </c>
       <c r="L7">
-        <v>0.9800084310391473</v>
+        <v>1.036982311613451</v>
       </c>
       <c r="M7">
-        <v>0.9729547994752868</v>
+        <v>1.050859005889565</v>
       </c>
       <c r="N7">
-        <v>0.996807124150955</v>
+        <v>1.017257718693914</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.939572940516217</v>
+        <v>1.032847128319707</v>
       </c>
       <c r="D8">
-        <v>0.9515590637180098</v>
+        <v>1.039614219128583</v>
       </c>
       <c r="E8">
-        <v>0.9541855917394677</v>
+        <v>1.032217612967016</v>
       </c>
       <c r="F8">
-        <v>0.9397665927974074</v>
+        <v>1.045524690968382</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031080975845026</v>
+        <v>1.025670160678914</v>
       </c>
       <c r="J8">
-        <v>0.9630920244890571</v>
+        <v>1.037856113896958</v>
       </c>
       <c r="K8">
-        <v>0.9634377951588134</v>
+        <v>1.042335675213977</v>
       </c>
       <c r="L8">
-        <v>0.9660241165771799</v>
+        <v>1.034959742089841</v>
       </c>
       <c r="M8">
-        <v>0.9518293892026832</v>
+        <v>1.04822985545198</v>
       </c>
       <c r="N8">
-        <v>0.9917204654082605</v>
+        <v>1.016540199667627</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8988583580387409</v>
+        <v>1.028081467259077</v>
       </c>
       <c r="D9">
-        <v>0.9114731278943028</v>
+        <v>1.035072292009155</v>
       </c>
       <c r="E9">
-        <v>0.9201569050370587</v>
+        <v>1.028115897825299</v>
       </c>
       <c r="F9">
-        <v>0.8877931373155643</v>
+        <v>1.040260978749667</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017726692982696</v>
+        <v>1.025050615002052</v>
       </c>
       <c r="J9">
-        <v>0.928568395436117</v>
+        <v>1.033930808343035</v>
       </c>
       <c r="K9">
-        <v>0.9261867479654416</v>
+        <v>1.03823789906243</v>
       </c>
       <c r="L9">
-        <v>0.9346934006336926</v>
+        <v>1.031304410892354</v>
       </c>
       <c r="M9">
-        <v>0.9030132046055838</v>
+        <v>1.043409719032736</v>
       </c>
       <c r="N9">
-        <v>0.9802775970092431</v>
+        <v>1.015240395542701</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8585356558401352</v>
+        <v>1.024829588530007</v>
       </c>
       <c r="D10">
-        <v>0.8711095467175587</v>
+        <v>1.031960576969148</v>
       </c>
       <c r="E10">
-        <v>0.8865336129102789</v>
+        <v>1.025318805641453</v>
       </c>
       <c r="F10">
-        <v>0.8337607603683636</v>
+        <v>1.036621815910532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003309496193791</v>
+        <v>1.0245808267817</v>
       </c>
       <c r="J10">
-        <v>0.8937530120655435</v>
+        <v>1.03123949493674</v>
       </c>
       <c r="K10">
-        <v>0.8882740368499057</v>
+        <v>1.035420670281251</v>
       </c>
       <c r="L10">
-        <v>0.9033058294568739</v>
+        <v>1.028803006031989</v>
       </c>
       <c r="M10">
-        <v>0.8519578535590017</v>
+        <v>1.040065194280118</v>
       </c>
       <c r="N10">
-        <v>0.9687566677606009</v>
+        <v>1.014348870685105</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8295061347940711</v>
+        <v>1.023402830685783</v>
       </c>
       <c r="D11">
-        <v>0.8415051551155563</v>
+        <v>1.030592354780063</v>
       </c>
       <c r="E11">
-        <v>0.8623336785163914</v>
+        <v>1.024092009384632</v>
       </c>
       <c r="F11">
-        <v>0.7928503367829378</v>
+        <v>1.035013874004046</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9921732333102863</v>
+        <v>1.024363681300849</v>
       </c>
       <c r="J11">
-        <v>0.8682085175583466</v>
+        <v>1.030055642519903</v>
       </c>
       <c r="K11">
-        <v>0.8601953021958509</v>
+        <v>1.034179621828111</v>
       </c>
       <c r="L11">
-        <v>0.8804204304918317</v>
+        <v>1.027703826576688</v>
       </c>
       <c r="M11">
-        <v>0.8131237250232812</v>
+        <v>1.038584637146462</v>
       </c>
       <c r="N11">
-        <v>0.960319702421318</v>
+        <v>1.013956629237239</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8079426068958827</v>
+        <v>1.022869980814924</v>
       </c>
       <c r="D12">
-        <v>0.8190981628396028</v>
+        <v>1.030080921286713</v>
       </c>
       <c r="E12">
-        <v>0.8443272236333064</v>
+        <v>1.023633903771137</v>
       </c>
       <c r="F12">
-        <v>0.7609853519986868</v>
+        <v>1.034411662809632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9833871663601564</v>
+        <v>1.024280937526924</v>
       </c>
       <c r="J12">
-        <v>0.8488802274636196</v>
+        <v>1.029613053579488</v>
       </c>
       <c r="K12">
-        <v>0.8387636392396118</v>
+        <v>1.033715378696254</v>
       </c>
       <c r="L12">
-        <v>0.8631986813712663</v>
+        <v>1.027293063561802</v>
       </c>
       <c r="M12">
-        <v>0.7827659665542902</v>
+        <v>1.038029718140071</v>
       </c>
       <c r="N12">
-        <v>0.9539469977648202</v>
+        <v>1.01380997628149</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8146251946298378</v>
+        <v>1.022984411007672</v>
       </c>
       <c r="D13">
-        <v>0.8260882665759656</v>
+        <v>1.030190772405078</v>
       </c>
       <c r="E13">
-        <v>0.8499125091776663</v>
+        <v>1.023732279592517</v>
       </c>
       <c r="F13">
-        <v>0.7710210331296442</v>
+        <v>1.034541065117313</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.986165478403995</v>
+        <v>1.024298781166054</v>
       </c>
       <c r="J13">
-        <v>0.8549088257217163</v>
+        <v>1.029708120772116</v>
       </c>
       <c r="K13">
-        <v>0.8454680449086061</v>
+        <v>1.033815109418631</v>
       </c>
       <c r="L13">
-        <v>0.8685605626307077</v>
+        <v>1.027381286902692</v>
       </c>
       <c r="M13">
-        <v>0.7923381732895362</v>
+        <v>1.038148977122556</v>
       </c>
       <c r="N13">
-        <v>0.9559335386685293</v>
+        <v>1.013841477555743</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.828244014959502</v>
+        <v>1.023358844568125</v>
       </c>
       <c r="D14">
-        <v>0.8402047847572441</v>
+        <v>1.030550145619896</v>
       </c>
       <c r="E14">
-        <v>0.8612808415068514</v>
+        <v>1.024054191990297</v>
       </c>
       <c r="F14">
-        <v>0.7910242129655012</v>
+        <v>1.034964196723039</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.991672427306462</v>
+        <v>1.024356884381359</v>
       </c>
       <c r="J14">
-        <v>0.8670865880164403</v>
+        <v>1.030019116634314</v>
       </c>
       <c r="K14">
-        <v>0.8589560758771047</v>
+        <v>1.034141314388498</v>
       </c>
       <c r="L14">
-        <v>0.8794183992708412</v>
+        <v>1.027669923743079</v>
       </c>
       <c r="M14">
-        <v>0.8113866982076707</v>
+        <v>1.038538869515384</v>
       </c>
       <c r="N14">
-        <v>0.9599495116290115</v>
+        <v>1.013944526528493</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8344309285255898</v>
+        <v>1.023589160139907</v>
       </c>
       <c r="D15">
-        <v>0.8465675589358393</v>
+        <v>1.030771138690418</v>
       </c>
       <c r="E15">
-        <v>0.866440997062339</v>
+        <v>1.02425221018314</v>
       </c>
       <c r="F15">
-        <v>0.7999346051617889</v>
+        <v>1.035224242510542</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9941130854192017</v>
+        <v>1.024392406479638</v>
       </c>
       <c r="J15">
-        <v>0.8725764139640051</v>
+        <v>1.030210351046604</v>
       </c>
       <c r="K15">
-        <v>0.8650147175709069</v>
+        <v>1.03434186520611</v>
       </c>
       <c r="L15">
-        <v>0.8843241518964794</v>
+        <v>1.027847431906104</v>
       </c>
       <c r="M15">
-        <v>0.8198593809216678</v>
+        <v>1.038778432479117</v>
       </c>
       <c r="N15">
-        <v>0.9617612385863069</v>
+        <v>1.01400789082733</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.860027117847568</v>
+        <v>1.024923877327264</v>
       </c>
       <c r="D16">
-        <v>0.8726166175703727</v>
+        <v>1.032050935319169</v>
       </c>
       <c r="E16">
-        <v>0.8877766361788625</v>
+        <v>1.025399888750709</v>
       </c>
       <c r="F16">
-        <v>0.8358120706909461</v>
+        <v>1.03672784218053</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.003863506449561</v>
+        <v>1.024594946818987</v>
       </c>
       <c r="J16">
-        <v>0.8950533776745389</v>
+        <v>1.031317667345023</v>
       </c>
       <c r="K16">
-        <v>0.8896969953674487</v>
+        <v>1.035502581652197</v>
       </c>
       <c r="L16">
-        <v>0.9044742560755153</v>
+        <v>1.028875611069936</v>
       </c>
       <c r="M16">
-        <v>0.8539010873073672</v>
+        <v>1.040162762762528</v>
       </c>
       <c r="N16">
-        <v>0.9691865563714095</v>
+        <v>1.014374769634492</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8720336360470315</v>
+        <v>1.025756053426938</v>
       </c>
       <c r="D17">
-        <v>0.8847062431166272</v>
+        <v>1.032848082316095</v>
       </c>
       <c r="E17">
-        <v>0.8977840694448769</v>
+        <v>1.026115562638548</v>
       </c>
       <c r="F17">
-        <v>0.8521679523384564</v>
+        <v>1.037662318683578</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.008264065731307</v>
+        <v>1.024718304018293</v>
       </c>
       <c r="J17">
-        <v>0.9054840106354873</v>
+        <v>1.032007254141838</v>
       </c>
       <c r="K17">
-        <v>0.9010906630024264</v>
+        <v>1.036224944054085</v>
       </c>
       <c r="L17">
-        <v>0.9138578301125416</v>
+        <v>1.0295162162452</v>
       </c>
       <c r="M17">
-        <v>0.8693816386736046</v>
+        <v>1.041022376006485</v>
       </c>
       <c r="N17">
-        <v>0.9726360874349874</v>
+        <v>1.014603224583008</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8782736760694131</v>
+        <v>1.026239651816549</v>
       </c>
       <c r="D18">
-        <v>0.8909613540350722</v>
+        <v>1.033311040967002</v>
       </c>
       <c r="E18">
-        <v>0.9029862751858051</v>
+        <v>1.026531499248702</v>
       </c>
       <c r="F18">
-        <v>0.8605634429544424</v>
+        <v>1.038204288313743</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010510384011289</v>
+        <v>1.024788933752946</v>
       </c>
       <c r="J18">
-        <v>0.910879967970377</v>
+        <v>1.032407699093065</v>
       </c>
       <c r="K18">
-        <v>0.9069711690646997</v>
+        <v>1.036644248991897</v>
       </c>
       <c r="L18">
-        <v>0.9187198135965717</v>
+        <v>1.029888326044569</v>
       </c>
       <c r="M18">
-        <v>0.8773182988624922</v>
+        <v>1.041520659947653</v>
       </c>
       <c r="N18">
-        <v>0.9744214335035868</v>
+        <v>1.014735881501053</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8803008104410783</v>
+        <v>1.026404244222369</v>
       </c>
       <c r="D19">
-        <v>0.8929894842240502</v>
+        <v>1.033468560568427</v>
       </c>
       <c r="E19">
-        <v>0.9046764958044845</v>
+        <v>1.026673069862599</v>
       </c>
       <c r="F19">
-        <v>0.8632761028038516</v>
+        <v>1.038388564527374</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.01123421887257</v>
+        <v>1.024812793071723</v>
       </c>
       <c r="J19">
-        <v>0.9126293782334105</v>
+        <v>1.032543940869497</v>
       </c>
       <c r="K19">
-        <v>0.9088757475712487</v>
+        <v>1.036786878080189</v>
       </c>
       <c r="L19">
-        <v>0.9202972087867984</v>
+        <v>1.030014945895228</v>
       </c>
       <c r="M19">
-        <v>0.8798812967473414</v>
+        <v>1.041690037056171</v>
       </c>
       <c r="N19">
-        <v>0.9750003732129492</v>
+        <v>1.014781013554133</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8708323328214799</v>
+        <v>1.025666955149128</v>
       </c>
       <c r="D20">
-        <v>0.8834999019449014</v>
+        <v>1.032762763845646</v>
       </c>
       <c r="E20">
-        <v>0.8967826747249348</v>
+        <v>1.026038933647884</v>
       </c>
       <c r="F20">
-        <v>0.8505436754861976</v>
+        <v>1.037562379134471</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.007828448526867</v>
+        <v>1.024705205914672</v>
       </c>
       <c r="J20">
-        <v>0.9044432905622442</v>
+        <v>1.031933452580785</v>
       </c>
       <c r="K20">
-        <v>0.8999554389324144</v>
+        <v>1.036147652663612</v>
       </c>
       <c r="L20">
-        <v>0.9129206940684456</v>
+        <v>1.029447645586123</v>
       </c>
       <c r="M20">
-        <v>0.8678453786793533</v>
+        <v>1.040930470527291</v>
       </c>
       <c r="N20">
-        <v>0.9722918113483932</v>
+        <v>1.014578775453625</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8248628486557213</v>
+        <v>1.023248663639237</v>
       </c>
       <c r="D21">
-        <v>0.8367148831795769</v>
+        <v>1.030444408617871</v>
       </c>
       <c r="E21">
-        <v>0.8584598220098286</v>
+        <v>1.023959464159756</v>
       </c>
       <c r="F21">
-        <v>0.7861099940119728</v>
+        <v>1.034839732633946</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9903231497706357</v>
+        <v>1.024339832228271</v>
       </c>
       <c r="J21">
-        <v>0.8640756880992052</v>
+        <v>1.029927615490076</v>
       </c>
       <c r="K21">
-        <v>0.8556276381597548</v>
+        <v>1.034045345893486</v>
       </c>
       <c r="L21">
-        <v>0.8767306542436899</v>
+        <v>1.027584996367237</v>
       </c>
       <c r="M21">
-        <v>0.806710662541808</v>
+        <v>1.0384241941714</v>
       </c>
       <c r="N21">
-        <v>0.958956202094998</v>
+        <v>1.013914207797245</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8248628486557213</v>
+        <v>1.021711431994304</v>
       </c>
       <c r="D22">
-        <v>0.8367148831795769</v>
+        <v>1.028968121176213</v>
       </c>
       <c r="E22">
-        <v>0.8584598220098286</v>
+        <v>1.022637987549708</v>
       </c>
       <c r="F22">
-        <v>0.7861099940119728</v>
+        <v>1.033099194749899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9903231497706357</v>
+        <v>1.024098023431437</v>
       </c>
       <c r="J22">
-        <v>0.8640756880992052</v>
+        <v>1.02864991739968</v>
       </c>
       <c r="K22">
-        <v>0.8556276381597548</v>
+        <v>1.032704622981153</v>
       </c>
       <c r="L22">
-        <v>0.8767306542436899</v>
+        <v>1.026399497778746</v>
       </c>
       <c r="M22">
-        <v>0.806710662541808</v>
+        <v>1.036819559516304</v>
       </c>
       <c r="N22">
-        <v>0.958956202094998</v>
+        <v>1.013490817618975</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8248628486557213</v>
+        <v>1.022527964574351</v>
       </c>
       <c r="D23">
-        <v>0.8367148831795769</v>
+        <v>1.029752526093623</v>
       </c>
       <c r="E23">
-        <v>0.8584598220098286</v>
+        <v>1.023339881425849</v>
       </c>
       <c r="F23">
-        <v>0.7861099940119728</v>
+        <v>1.034024648483641</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9903231497706357</v>
+        <v>1.024227364850584</v>
       </c>
       <c r="J23">
-        <v>0.8640756880992052</v>
+        <v>1.029328843815372</v>
       </c>
       <c r="K23">
-        <v>0.8556276381597548</v>
+        <v>1.033417187303246</v>
       </c>
       <c r="L23">
-        <v>0.8767306542436899</v>
+        <v>1.027029338925668</v>
       </c>
       <c r="M23">
-        <v>0.806710662541808</v>
+        <v>1.03767297961879</v>
       </c>
       <c r="N23">
-        <v>0.958956202094998</v>
+        <v>1.013715799419071</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7361820826289628</v>
+        <v>1.025707220370197</v>
       </c>
       <c r="D24">
-        <v>0.7386710347270663</v>
+        <v>1.032801321776564</v>
       </c>
       <c r="E24">
-        <v>0.7833096644159415</v>
+        <v>1.026073563633362</v>
       </c>
       <c r="F24">
-        <v>0.635353103659668</v>
+        <v>1.03760754707066</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9467885254634884</v>
+        <v>1.024711128468898</v>
       </c>
       <c r="J24">
-        <v>0.779682098054065</v>
+        <v>1.031966805823475</v>
       </c>
       <c r="K24">
-        <v>0.759627460414025</v>
+        <v>1.036182583605139</v>
       </c>
       <c r="L24">
-        <v>0.8026243576603612</v>
+        <v>1.029478634483688</v>
       </c>
       <c r="M24">
-        <v>0.6614446740783624</v>
+        <v>1.040972008272782</v>
       </c>
       <c r="N24">
-        <v>0.9312518751456408</v>
+        <v>1.014589824806088</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7198021068676241</v>
+        <v>1.029326385316588</v>
       </c>
       <c r="D25">
-        <v>0.7152457154814651</v>
+        <v>1.036260947339985</v>
       </c>
       <c r="E25">
-        <v>0.7681513768700098</v>
+        <v>1.029187076272365</v>
       </c>
       <c r="F25">
-        <v>0.5903703192372168</v>
+        <v>1.041644271901987</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9310679350310503</v>
+        <v>1.025220704692519</v>
       </c>
       <c r="J25">
-        <v>0.7596232912614679</v>
+        <v>1.034958448226621</v>
       </c>
       <c r="K25">
-        <v>0.7347867059237497</v>
+        <v>1.039312028701415</v>
       </c>
       <c r="L25">
-        <v>0.7858627037462815</v>
+        <v>1.032260534160157</v>
       </c>
       <c r="M25">
-        <v>0.6162190963746126</v>
+        <v>1.044678546865346</v>
       </c>
       <c r="N25">
-        <v>0.92475464321499</v>
+        <v>1.015580741984272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03215926294198</v>
+        <v>0.9344131241618607</v>
       </c>
       <c r="D2">
-        <v>1.038960079507079</v>
+        <v>0.9465118181335863</v>
       </c>
       <c r="E2">
-        <v>1.031625385671663</v>
+        <v>0.9498670239480217</v>
       </c>
       <c r="F2">
-        <v>1.044770361999965</v>
+        <v>0.9333102117004778</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02558616476744</v>
+        <v>1.029462178644178</v>
       </c>
       <c r="J2">
-        <v>1.037291017445208</v>
+        <v>0.95874959829119</v>
       </c>
       <c r="K2">
-        <v>1.041746626773963</v>
+        <v>0.9587702929024972</v>
       </c>
       <c r="L2">
-        <v>1.034432962556984</v>
+        <v>0.9620719819414123</v>
       </c>
       <c r="M2">
-        <v>1.047540477808525</v>
+        <v>0.9457840666534933</v>
       </c>
       <c r="N2">
-        <v>1.016353115855461</v>
+        <v>0.9902804202692682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034186319873802</v>
+        <v>0.9491238385981589</v>
       </c>
       <c r="D3">
-        <v>1.040886284846098</v>
+        <v>0.9608771361110487</v>
       </c>
       <c r="E3">
-        <v>1.033370803401584</v>
+        <v>0.9621846155344099</v>
       </c>
       <c r="F3">
-        <v>1.046987738301942</v>
+        <v>0.9516195345440759</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025828105562731</v>
+        <v>1.034013863203381</v>
       </c>
       <c r="J3">
-        <v>1.038954780536555</v>
+        <v>0.9711045398335307</v>
       </c>
       <c r="K3">
-        <v>1.043480010256753</v>
+        <v>0.9720363467196019</v>
       </c>
       <c r="L3">
-        <v>1.035984474811181</v>
+        <v>0.9733253630195506</v>
       </c>
       <c r="M3">
-        <v>1.049565497943743</v>
+        <v>0.9629113128116916</v>
       </c>
       <c r="N3">
-        <v>1.016903889678523</v>
+        <v>0.9943780042772844</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035484549232085</v>
+        <v>0.9578404136383381</v>
       </c>
       <c r="D4">
-        <v>1.042117532369615</v>
+        <v>0.9693534018470383</v>
       </c>
       <c r="E4">
-        <v>1.034488971503151</v>
+        <v>0.9694911791890287</v>
       </c>
       <c r="F4">
-        <v>1.048398825102347</v>
+        <v>0.9623253467943763</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025973924201731</v>
+        <v>1.036613150703537</v>
       </c>
       <c r="J4">
-        <v>1.040017877053239</v>
+        <v>0.9783877073208801</v>
       </c>
       <c r="K4">
-        <v>1.044586124264488</v>
+        <v>0.9798363399117174</v>
       </c>
       <c r="L4">
-        <v>1.036976763452705</v>
+        <v>0.9799723204987416</v>
       </c>
       <c r="M4">
-        <v>1.050851833588921</v>
+        <v>0.9729007942048093</v>
       </c>
       <c r="N4">
-        <v>1.017255752221955</v>
+        <v>0.9967940081310358</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036027170756988</v>
+        <v>0.9613438844558487</v>
       </c>
       <c r="D5">
-        <v>1.042631582726102</v>
+        <v>0.9727527145395691</v>
       </c>
       <c r="E5">
-        <v>1.034956407287077</v>
+        <v>0.9724296885200173</v>
       </c>
       <c r="F5">
-        <v>1.048986449222006</v>
+        <v>0.9665979143655893</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026032670262067</v>
+        <v>1.037635499746738</v>
       </c>
       <c r="J5">
-        <v>1.040461628462656</v>
+        <v>0.9813069096695933</v>
       </c>
       <c r="K5">
-        <v>1.045047478366854</v>
+        <v>0.9829583299167517</v>
       </c>
       <c r="L5">
-        <v>1.037391179267411</v>
+        <v>0.9826393764889889</v>
       </c>
       <c r="M5">
-        <v>1.051386940368189</v>
+        <v>0.9768817122274773</v>
       </c>
       <c r="N5">
-        <v>1.017402608661475</v>
+        <v>0.997762453064623</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036118095947067</v>
+        <v>0.9619234269759708</v>
       </c>
       <c r="D6">
-        <v>1.042717686548636</v>
+        <v>0.973314604135286</v>
       </c>
       <c r="E6">
-        <v>1.035034738217075</v>
+        <v>0.9729158754230914</v>
       </c>
       <c r="F6">
-        <v>1.049084787895521</v>
+        <v>0.9673029783834696</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026042384461634</v>
+        <v>1.037803320603346</v>
       </c>
       <c r="J6">
-        <v>1.040535951549264</v>
+        <v>0.981789343702283</v>
       </c>
       <c r="K6">
-        <v>1.045124728891773</v>
+        <v>0.9834740316693192</v>
       </c>
       <c r="L6">
-        <v>1.037460601970349</v>
+        <v>0.9830803014123609</v>
       </c>
       <c r="M6">
-        <v>1.051476456814669</v>
+        <v>0.9775383136294998</v>
       </c>
       <c r="N6">
-        <v>1.01742720443144</v>
+        <v>0.9979225037385704</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035491812086495</v>
+        <v>0.9578878254848905</v>
       </c>
       <c r="D7">
-        <v>1.042124415072708</v>
+        <v>0.9693994333213849</v>
       </c>
       <c r="E7">
-        <v>1.034495227722536</v>
+        <v>0.9695309386359154</v>
       </c>
       <c r="F7">
-        <v>1.048406698854255</v>
+        <v>0.9623832840713175</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025974719195748</v>
+        <v>1.036627074354338</v>
       </c>
       <c r="J7">
-        <v>1.040023818888607</v>
+        <v>0.978427243932608</v>
       </c>
       <c r="K7">
-        <v>1.044592303195455</v>
+        <v>0.9798786399144104</v>
       </c>
       <c r="L7">
-        <v>1.036982311613451</v>
+        <v>0.9800084310391468</v>
       </c>
       <c r="M7">
-        <v>1.050859005889565</v>
+        <v>0.9729547994752863</v>
       </c>
       <c r="N7">
-        <v>1.017257718693914</v>
+        <v>0.9968071241509547</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032847128319707</v>
+        <v>0.9395729405162159</v>
       </c>
       <c r="D8">
-        <v>1.039614219128583</v>
+        <v>0.9515590637180088</v>
       </c>
       <c r="E8">
-        <v>1.032217612967016</v>
+        <v>0.9541855917394667</v>
       </c>
       <c r="F8">
-        <v>1.045524690968382</v>
+        <v>0.9397665927974063</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025670160678914</v>
+        <v>1.031080975845026</v>
       </c>
       <c r="J8">
-        <v>1.037856113896958</v>
+        <v>0.9630920244890561</v>
       </c>
       <c r="K8">
-        <v>1.042335675213977</v>
+        <v>0.9634377951588123</v>
       </c>
       <c r="L8">
-        <v>1.034959742089841</v>
+        <v>0.9660241165771789</v>
       </c>
       <c r="M8">
-        <v>1.04822985545198</v>
+        <v>0.9518293892026822</v>
       </c>
       <c r="N8">
-        <v>1.016540199667627</v>
+        <v>0.9917204654082601</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028081467259077</v>
+        <v>0.8988583580387409</v>
       </c>
       <c r="D9">
-        <v>1.035072292009155</v>
+        <v>0.9114731278943022</v>
       </c>
       <c r="E9">
-        <v>1.028115897825299</v>
+        <v>0.9201569050370586</v>
       </c>
       <c r="F9">
-        <v>1.040260978749667</v>
+        <v>0.8877931373155638</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025050615002052</v>
+        <v>1.017726692982696</v>
       </c>
       <c r="J9">
-        <v>1.033930808343035</v>
+        <v>0.9285683954361168</v>
       </c>
       <c r="K9">
-        <v>1.03823789906243</v>
+        <v>0.9261867479654411</v>
       </c>
       <c r="L9">
-        <v>1.031304410892354</v>
+        <v>0.9346934006336922</v>
       </c>
       <c r="M9">
-        <v>1.043409719032736</v>
+        <v>0.9030132046055833</v>
       </c>
       <c r="N9">
-        <v>1.015240395542701</v>
+        <v>0.9802775970092429</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024829588530007</v>
+        <v>0.8585356558401368</v>
       </c>
       <c r="D10">
-        <v>1.031960576969148</v>
+        <v>0.8711095467175605</v>
       </c>
       <c r="E10">
-        <v>1.025318805641453</v>
+        <v>0.8865336129102804</v>
       </c>
       <c r="F10">
-        <v>1.036621815910532</v>
+        <v>0.8337607603683658</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0245808267817</v>
+        <v>1.003309496193792</v>
       </c>
       <c r="J10">
-        <v>1.03123949493674</v>
+        <v>0.893753012065545</v>
       </c>
       <c r="K10">
-        <v>1.035420670281251</v>
+        <v>0.8882740368499075</v>
       </c>
       <c r="L10">
-        <v>1.028803006031989</v>
+        <v>0.9033058294568754</v>
       </c>
       <c r="M10">
-        <v>1.040065194280118</v>
+        <v>0.8519578535590037</v>
       </c>
       <c r="N10">
-        <v>1.014348870685105</v>
+        <v>0.9687566677606015</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023402830685783</v>
+        <v>0.8295061347940714</v>
       </c>
       <c r="D11">
-        <v>1.030592354780063</v>
+        <v>0.8415051551155569</v>
       </c>
       <c r="E11">
-        <v>1.024092009384632</v>
+        <v>0.8623336785163919</v>
       </c>
       <c r="F11">
-        <v>1.035013874004046</v>
+        <v>0.7928503367829384</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024363681300849</v>
+        <v>0.9921732333102866</v>
       </c>
       <c r="J11">
-        <v>1.030055642519903</v>
+        <v>0.8682085175583469</v>
       </c>
       <c r="K11">
-        <v>1.034179621828111</v>
+        <v>0.8601953021958514</v>
       </c>
       <c r="L11">
-        <v>1.027703826576688</v>
+        <v>0.8804204304918322</v>
       </c>
       <c r="M11">
-        <v>1.038584637146462</v>
+        <v>0.8131237250232817</v>
       </c>
       <c r="N11">
-        <v>1.013956629237239</v>
+        <v>0.960319702421318</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.022869980814924</v>
+        <v>0.8079426068958833</v>
       </c>
       <c r="D12">
-        <v>1.030080921286713</v>
+        <v>0.8190981628396032</v>
       </c>
       <c r="E12">
-        <v>1.023633903771137</v>
+        <v>0.8443272236333073</v>
       </c>
       <c r="F12">
-        <v>1.034411662809632</v>
+        <v>0.7609853519986874</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024280937526924</v>
+        <v>0.9833871663601564</v>
       </c>
       <c r="J12">
-        <v>1.029613053579488</v>
+        <v>0.8488802274636204</v>
       </c>
       <c r="K12">
-        <v>1.033715378696254</v>
+        <v>0.8387636392396124</v>
       </c>
       <c r="L12">
-        <v>1.027293063561802</v>
+        <v>0.8631986813712671</v>
       </c>
       <c r="M12">
-        <v>1.038029718140071</v>
+        <v>0.7827659665542908</v>
       </c>
       <c r="N12">
-        <v>1.01380997628149</v>
+        <v>0.9539469977648202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022984411007672</v>
+        <v>0.8146251946298375</v>
       </c>
       <c r="D13">
-        <v>1.030190772405078</v>
+        <v>0.8260882665759653</v>
       </c>
       <c r="E13">
-        <v>1.023732279592517</v>
+        <v>0.8499125091776661</v>
       </c>
       <c r="F13">
-        <v>1.034541065117313</v>
+        <v>0.7710210331296438</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024298781166054</v>
+        <v>0.9861654784039948</v>
       </c>
       <c r="J13">
-        <v>1.029708120772116</v>
+        <v>0.8549088257217163</v>
       </c>
       <c r="K13">
-        <v>1.033815109418631</v>
+        <v>0.8454680449086057</v>
       </c>
       <c r="L13">
-        <v>1.027381286902692</v>
+        <v>0.8685605626307074</v>
       </c>
       <c r="M13">
-        <v>1.038148977122556</v>
+        <v>0.7923381732895356</v>
       </c>
       <c r="N13">
-        <v>1.013841477555743</v>
+        <v>0.9559335386685293</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023358844568125</v>
+        <v>0.828244014959501</v>
       </c>
       <c r="D14">
-        <v>1.030550145619896</v>
+        <v>0.840204784757243</v>
       </c>
       <c r="E14">
-        <v>1.024054191990297</v>
+        <v>0.8612808415068505</v>
       </c>
       <c r="F14">
-        <v>1.034964196723039</v>
+        <v>0.7910242129654999</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024356884381359</v>
+        <v>0.9916724273064621</v>
       </c>
       <c r="J14">
-        <v>1.030019116634314</v>
+        <v>0.8670865880164392</v>
       </c>
       <c r="K14">
-        <v>1.034141314388498</v>
+        <v>0.8589560758771035</v>
       </c>
       <c r="L14">
-        <v>1.027669923743079</v>
+        <v>0.8794183992708403</v>
       </c>
       <c r="M14">
-        <v>1.038538869515384</v>
+        <v>0.8113866982076695</v>
       </c>
       <c r="N14">
-        <v>1.013944526528493</v>
+        <v>0.959949511629011</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023589160139907</v>
+        <v>0.8344309285255884</v>
       </c>
       <c r="D15">
-        <v>1.030771138690418</v>
+        <v>0.8465675589358381</v>
       </c>
       <c r="E15">
-        <v>1.02425221018314</v>
+        <v>0.8664409970623381</v>
       </c>
       <c r="F15">
-        <v>1.035224242510542</v>
+        <v>0.7999346051617874</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.024392406479638</v>
+        <v>0.9941130854192011</v>
       </c>
       <c r="J15">
-        <v>1.030210351046604</v>
+        <v>0.8725764139640036</v>
       </c>
       <c r="K15">
-        <v>1.03434186520611</v>
+        <v>0.8650147175709056</v>
       </c>
       <c r="L15">
-        <v>1.027847431906104</v>
+        <v>0.8843241518964783</v>
       </c>
       <c r="M15">
-        <v>1.038778432479117</v>
+        <v>0.8198593809216662</v>
       </c>
       <c r="N15">
-        <v>1.01400789082733</v>
+        <v>0.9617612385863064</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024923877327264</v>
+        <v>0.8600271178475669</v>
       </c>
       <c r="D16">
-        <v>1.032050935319169</v>
+        <v>0.8726166175703712</v>
       </c>
       <c r="E16">
-        <v>1.025399888750709</v>
+        <v>0.8877766361788615</v>
       </c>
       <c r="F16">
-        <v>1.03672784218053</v>
+        <v>0.8358120706909442</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024594946818987</v>
+        <v>1.00386350644956</v>
       </c>
       <c r="J16">
-        <v>1.031317667345023</v>
+        <v>0.8950533776745377</v>
       </c>
       <c r="K16">
-        <v>1.035502581652197</v>
+        <v>0.8896969953674474</v>
       </c>
       <c r="L16">
-        <v>1.028875611069936</v>
+        <v>0.9044742560755142</v>
       </c>
       <c r="M16">
-        <v>1.040162762762528</v>
+        <v>0.8539010873073657</v>
       </c>
       <c r="N16">
-        <v>1.014374769634492</v>
+        <v>0.9691865563714092</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025756053426938</v>
+        <v>0.8720336360470313</v>
       </c>
       <c r="D17">
-        <v>1.032848082316095</v>
+        <v>0.8847062431166265</v>
       </c>
       <c r="E17">
-        <v>1.026115562638548</v>
+        <v>0.8977840694448764</v>
       </c>
       <c r="F17">
-        <v>1.037662318683578</v>
+        <v>0.8521679523384555</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024718304018293</v>
+        <v>1.008264065731306</v>
       </c>
       <c r="J17">
-        <v>1.032007254141838</v>
+        <v>0.9054840106354869</v>
       </c>
       <c r="K17">
-        <v>1.036224944054085</v>
+        <v>0.9010906630024259</v>
       </c>
       <c r="L17">
-        <v>1.0295162162452</v>
+        <v>0.9138578301125412</v>
       </c>
       <c r="M17">
-        <v>1.041022376006485</v>
+        <v>0.8693816386736039</v>
       </c>
       <c r="N17">
-        <v>1.014603224583008</v>
+        <v>0.9726360874349874</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026239651816549</v>
+        <v>0.878273676069413</v>
       </c>
       <c r="D18">
-        <v>1.033311040967002</v>
+        <v>0.8909613540350722</v>
       </c>
       <c r="E18">
-        <v>1.026531499248702</v>
+        <v>0.9029862751858054</v>
       </c>
       <c r="F18">
-        <v>1.038204288313743</v>
+        <v>0.8605634429544428</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024788933752946</v>
+        <v>1.010510384011289</v>
       </c>
       <c r="J18">
-        <v>1.032407699093065</v>
+        <v>0.9108799679703768</v>
       </c>
       <c r="K18">
-        <v>1.036644248991897</v>
+        <v>0.9069711690646999</v>
       </c>
       <c r="L18">
-        <v>1.029888326044569</v>
+        <v>0.918719813596572</v>
       </c>
       <c r="M18">
-        <v>1.041520659947653</v>
+        <v>0.8773182988624926</v>
       </c>
       <c r="N18">
-        <v>1.014735881501053</v>
+        <v>0.9744214335035869</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026404244222369</v>
+        <v>0.880300810441078</v>
       </c>
       <c r="D19">
-        <v>1.033468560568427</v>
+        <v>0.8929894842240499</v>
       </c>
       <c r="E19">
-        <v>1.026673069862599</v>
+        <v>0.9046764958044842</v>
       </c>
       <c r="F19">
-        <v>1.038388564527374</v>
+        <v>0.8632761028038514</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024812793071723</v>
+        <v>1.01123421887257</v>
       </c>
       <c r="J19">
-        <v>1.032543940869497</v>
+        <v>0.9126293782334104</v>
       </c>
       <c r="K19">
-        <v>1.036786878080189</v>
+        <v>0.9088757475712483</v>
       </c>
       <c r="L19">
-        <v>1.030014945895228</v>
+        <v>0.920297208786798</v>
       </c>
       <c r="M19">
-        <v>1.041690037056171</v>
+        <v>0.8798812967473411</v>
       </c>
       <c r="N19">
-        <v>1.014781013554133</v>
+        <v>0.9750003732129492</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025666955149128</v>
+        <v>0.870832332821479</v>
       </c>
       <c r="D20">
-        <v>1.032762763845646</v>
+        <v>0.8834999019449006</v>
       </c>
       <c r="E20">
-        <v>1.026038933647884</v>
+        <v>0.8967826747249336</v>
       </c>
       <c r="F20">
-        <v>1.037562379134471</v>
+        <v>0.8505436754861966</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024705205914672</v>
+        <v>1.007828448526867</v>
       </c>
       <c r="J20">
-        <v>1.031933452580785</v>
+        <v>0.9044432905622433</v>
       </c>
       <c r="K20">
-        <v>1.036147652663612</v>
+        <v>0.8999554389324137</v>
       </c>
       <c r="L20">
-        <v>1.029447645586123</v>
+        <v>0.9129206940684444</v>
       </c>
       <c r="M20">
-        <v>1.040930470527291</v>
+        <v>0.8678453786793524</v>
       </c>
       <c r="N20">
-        <v>1.014578775453625</v>
+        <v>0.9722918113483928</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023248663639237</v>
+        <v>0.8248628486557273</v>
       </c>
       <c r="D21">
-        <v>1.030444408617871</v>
+        <v>0.8367148831795833</v>
       </c>
       <c r="E21">
-        <v>1.023959464159756</v>
+        <v>0.8584598220098335</v>
       </c>
       <c r="F21">
-        <v>1.034839732633946</v>
+        <v>0.7861099940119811</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024339832228271</v>
+        <v>0.9903231497706374</v>
       </c>
       <c r="J21">
-        <v>1.029927615490076</v>
+        <v>0.8640756880992106</v>
       </c>
       <c r="K21">
-        <v>1.034045345893486</v>
+        <v>0.8556276381597613</v>
       </c>
       <c r="L21">
-        <v>1.027584996367237</v>
+        <v>0.8767306542436949</v>
       </c>
       <c r="M21">
-        <v>1.0384241941714</v>
+        <v>0.8067106625418159</v>
       </c>
       <c r="N21">
-        <v>1.013914207797245</v>
+        <v>0.958956202095</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021711431994304</v>
+        <v>0.8248628486557273</v>
       </c>
       <c r="D22">
-        <v>1.028968121176213</v>
+        <v>0.8367148831795833</v>
       </c>
       <c r="E22">
-        <v>1.022637987549708</v>
+        <v>0.8584598220098335</v>
       </c>
       <c r="F22">
-        <v>1.033099194749899</v>
+        <v>0.7861099940119811</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024098023431437</v>
+        <v>0.9903231497706374</v>
       </c>
       <c r="J22">
-        <v>1.02864991739968</v>
+        <v>0.8640756880992106</v>
       </c>
       <c r="K22">
-        <v>1.032704622981153</v>
+        <v>0.8556276381597613</v>
       </c>
       <c r="L22">
-        <v>1.026399497778746</v>
+        <v>0.8767306542436949</v>
       </c>
       <c r="M22">
-        <v>1.036819559516304</v>
+        <v>0.8067106625418159</v>
       </c>
       <c r="N22">
-        <v>1.013490817618975</v>
+        <v>0.958956202095</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022527964574351</v>
+        <v>0.8248628486557273</v>
       </c>
       <c r="D23">
-        <v>1.029752526093623</v>
+        <v>0.8367148831795833</v>
       </c>
       <c r="E23">
-        <v>1.023339881425849</v>
+        <v>0.8584598220098335</v>
       </c>
       <c r="F23">
-        <v>1.034024648483641</v>
+        <v>0.7861099940119811</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024227364850584</v>
+        <v>0.9903231497706374</v>
       </c>
       <c r="J23">
-        <v>1.029328843815372</v>
+        <v>0.8640756880992106</v>
       </c>
       <c r="K23">
-        <v>1.033417187303246</v>
+        <v>0.8556276381597613</v>
       </c>
       <c r="L23">
-        <v>1.027029338925668</v>
+        <v>0.8767306542436949</v>
       </c>
       <c r="M23">
-        <v>1.03767297961879</v>
+        <v>0.8067106625418159</v>
       </c>
       <c r="N23">
-        <v>1.013715799419071</v>
+        <v>0.958956202095</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025707220370197</v>
+        <v>0.7361820826289623</v>
       </c>
       <c r="D24">
-        <v>1.032801321776564</v>
+        <v>0.7386710347270657</v>
       </c>
       <c r="E24">
-        <v>1.026073563633362</v>
+        <v>0.783309664415941</v>
       </c>
       <c r="F24">
-        <v>1.03760754707066</v>
+        <v>0.6353531036596678</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024711128468898</v>
+        <v>0.9467885254634885</v>
       </c>
       <c r="J24">
-        <v>1.031966805823475</v>
+        <v>0.7796820980540645</v>
       </c>
       <c r="K24">
-        <v>1.036182583605139</v>
+        <v>0.7596274604140246</v>
       </c>
       <c r="L24">
-        <v>1.029478634483688</v>
+        <v>0.8026243576603608</v>
       </c>
       <c r="M24">
-        <v>1.040972008272782</v>
+        <v>0.6614446740783623</v>
       </c>
       <c r="N24">
-        <v>1.014589824806088</v>
+        <v>0.9312518751456407</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029326385316588</v>
+        <v>0.7198021068676237</v>
       </c>
       <c r="D25">
-        <v>1.036260947339985</v>
+        <v>0.7152457154814652</v>
       </c>
       <c r="E25">
-        <v>1.029187076272365</v>
+        <v>0.7681513768700093</v>
       </c>
       <c r="F25">
-        <v>1.041644271901987</v>
+        <v>0.5903703192372168</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025220704692519</v>
+        <v>0.9310679350310503</v>
       </c>
       <c r="J25">
-        <v>1.034958448226621</v>
+        <v>0.7596232912614675</v>
       </c>
       <c r="K25">
-        <v>1.039312028701415</v>
+        <v>0.7347867059237497</v>
       </c>
       <c r="L25">
-        <v>1.032260534160157</v>
+        <v>0.7858627037462813</v>
       </c>
       <c r="M25">
-        <v>1.044678546865346</v>
+        <v>0.6162190963746126</v>
       </c>
       <c r="N25">
-        <v>1.015580741984272</v>
+        <v>0.9247546432149899</v>
       </c>
     </row>
   </sheetData>
